--- a/biology/Médecine/Hôpital_Henry-Ford/Hôpital_Henry-Ford.xlsx
+++ b/biology/Médecine/Hôpital_Henry-Ford/Hôpital_Henry-Ford.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_Henry-Ford</t>
+          <t>Hôpital_Henry-Ford</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'hôpital Henry-Ford (en anglais, Henry Ford Hospital ou HFH) fait partie des centres de santé Henry-Ford, basés à Détroit, dans l'État du Michigan aux États-Unis. Fondé en 1915 par le pionnier de l'automobile Henry Ford, l'hôpital comporte 903 lits et seuls les médecins qui sont membres du Groupe de médecine Henry-Ford peuvent s'y intégrer. Aujourd'hui, on dénombre plus de 1 000 médecins et scientifiques dans ce groupe dont l'organisation est inspirée des modèles de la clinique Mayo (Mayo Clinic), de l'hôpital Johns-Hopkins et de la clinique de Cleveland.
 L'hôpital Henry-Ford inclut un centre de traumatologie de premier plan où l'on gère un des services des urgences les plus fréquentés du Michigan et où sont traités annuellement près de 100 000 patients.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_Henry-Ford</t>
+          <t>Hôpital_Henry-Ford</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>L'hôpital Henry-Ford, construit sur un emplacement d'une superficie de 81 000 m2 et situé à ce qui était autrefois la périphérie de Détroit, sur West Grand Boulevard, a ouvert ses portes aux patients en octobre 1915; un bâtiment particulier en accueillait alors 48 et plusieurs autres bâtiments de plus petite taille abritaient le pavillon de chirurgie, le centre de recherche, les cuisines, le service de buanderie, la centrale d'énergie électrique et le garage.
 Au cours des deux années qui ont suivi l'ouverture de l'hôpital, la construction d'un bâtiment plus grand débuta. En 1918, pendant que les membres du personnel faisaient leur service militaire, l'édifice inachevé fut mis à la disposition du gouvernement fédéral et il servit d'hôpital général nº 36 de l'armée américaine. On y soignait alors les militaires revenus de la Première Guerre mondiale. Après la guerre, la construction du bâtiment de 50 000 pi² (4 600 m²) fut complétée et, en 1921, l'hôpital rouvrit doté de 500 nouveaux lits destinés à la population alors grandissante de Détroit.
@@ -536,7 +550,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_Henry-Ford</t>
+          <t>Hôpital_Henry-Ford</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -554,7 +568,9 @@
           <t>Médecin éminent de l'hôpital Henry-Ford</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Louis Saravolatz</t>
         </is>
